--- a/docs/unit1/02_darcy/clayliner.xlsx
+++ b/docs/unit1/02_darcy/clayliner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/My Drive (njones61@gmail.com)/work - byu/courses/CE 544/exercises/2. darcy's law/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{600A0E7B-392D-5C44-8395-654D3637762D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A280162-DBC9-AA41-BA90-A7726DE5875F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="3000" windowWidth="29940" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,73 +151,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>592015</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>102577</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>260744</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>19539</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1030" name="Object 6" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1030"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,11 +415,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -557,34 +490,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="185" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="1030" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>596900</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>101600</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>25400</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="1030" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>